--- a/core/management/commands/WELFARE FINANCE DATA 2016 updated.xlsx
+++ b/core/management/commands/WELFARE FINANCE DATA 2016 updated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2016 WELFARE" sheetId="1" state="visible" r:id="rId2"/>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">0705-765002</t>
   </si>
   <si>
-    <t xml:space="preserve">FAITH N MBUTHYA</t>
+    <t xml:space="preserve">FAITH N MBUTHIA</t>
   </si>
   <si>
     <t xml:space="preserve">0723-494787</t>
@@ -1214,8 +1214,8 @@
   </sheetPr>
   <dimension ref="A1:AH185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A124" activeCellId="0" sqref="A124"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8292,8 +8292,8 @@
   </sheetPr>
   <dimension ref="A1:BE1096"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A124" activeCellId="0" sqref="A124"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22137,8 +22137,8 @@
   </sheetPr>
   <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26465,8 +26465,8 @@
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q111" activeCellId="0" sqref="Q111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
